--- a/biology/Zoologie/Gecarcinus_lateralis/Gecarcinus_lateralis.xlsx
+++ b/biology/Zoologie/Gecarcinus_lateralis/Gecarcinus_lateralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gecarcinus lateralis est une espèce de crustacés décapodes de la famille des Gecarcinidae. Ce  petit crabe rouge à la carapace soulignée d’une large tache noire est recherché pour sa chair par les habitants des Antilles. 
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve le long de la côte Atlantique, du Texas au Venezuela, dans l'archipel des Keys (Floride) et dans les îles des Caraïbes.
-Surnommé  tourlourou ou touloulou[1] aux Antilles françaises, il recherche les terrains secs et boisés où il creuse des galeries dans le sable non loin du rivage. L'entrée de celles-ci est proche des arbres. C'est sur ces orifices que sont placés les pièges à touloulou ou Z’attrap crab ou bwèt à krab.
+Surnommé  tourlourou ou touloulou aux Antilles françaises, il recherche les terrains secs et boisés où il creuse des galeries dans le sable non loin du rivage. L'entrée de celles-ci est proche des arbres. C'est sur ces orifices que sont placés les pièges à touloulou ou Z’attrap crab ou bwèt à krab.
 Gecarcinus lateralis favorise l’aération des sols en participant à la dégradation des débris végétaux dont il se nourrit. Principalement végétarien, il consomme des racines et des fruits et occasionnellement des cadavres d’animaux.  
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En période de reproduction, les mâles tapent sur le sol pour attirer les femelles. Après l’accouplement, ces dernières vont en mer pour déposer leurs œufs qui donneront naissance à des larves nageuses.
 </t>
@@ -575,10 +591,12 @@
           <t>Le Gecarcinus lateralis dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Touloulou est un petit crabe qui a le goût pour les aventures dans Les aventures de Touloulou le Bienheureux de Edmond Lapompe-Paironne[2].
-Dans la chanson Loulou Mi Touloulou composé par Al Lirvat, un crabe touloulou tente d'échapper aux hommes dont Loulou[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Touloulou est un petit crabe qui a le goût pour les aventures dans Les aventures de Touloulou le Bienheureux de Edmond Lapompe-Paironne.
+Dans la chanson Loulou Mi Touloulou composé par Al Lirvat, un crabe touloulou tente d'échapper aux hommes dont Loulou.</t>
         </is>
       </c>
     </row>
